--- a/data/trans_orig/P1431-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>12362</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7012</v>
+        <v>6243</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20920</v>
+        <v>19875</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01757252978181181</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00996730589766525</v>
+        <v>0.008874572631902451</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02973893517096218</v>
+        <v>0.02825303712327029</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -763,19 +763,19 @@
         <v>11010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5947</v>
+        <v>5095</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18189</v>
+        <v>18072</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01579493331057289</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00853098646225701</v>
+        <v>0.00730877505106985</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02609457655782895</v>
+        <v>0.02592672496344834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -784,19 +784,19 @@
         <v>23372</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14653</v>
+        <v>15295</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34083</v>
+        <v>34666</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01668780516300646</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01046274697652786</v>
+        <v>0.01092128382492038</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02433633173463761</v>
+        <v>0.02475255567813961</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>691107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>682549</v>
+        <v>683594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>696457</v>
+        <v>697226</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9824274702181882</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9702610648290376</v>
+        <v>0.9717469628767298</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9900326941023347</v>
+        <v>0.9911254273680976</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>639</v>
@@ -834,19 +834,19 @@
         <v>686040</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>678861</v>
+        <v>678978</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>691103</v>
+        <v>691955</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9842050666894271</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9739054234421709</v>
+        <v>0.9740732750365515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9914690135377429</v>
+        <v>0.9926912249489301</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1301</v>
@@ -855,19 +855,19 @@
         <v>1377147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1366436</v>
+        <v>1365853</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1385866</v>
+        <v>1385224</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9833121948369935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9756636682653627</v>
+        <v>0.9752474443218604</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9895372530234728</v>
+        <v>0.9890787161750796</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>13648</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7455</v>
+        <v>7529</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24259</v>
+        <v>24134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01340705529859258</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007323464241673105</v>
+        <v>0.007395863631204883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0238314688301599</v>
+        <v>0.02370884743592224</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -980,19 +980,19 @@
         <v>19340</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11773</v>
+        <v>10874</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29315</v>
+        <v>29881</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01879530886105853</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01144107638813537</v>
+        <v>0.01056823388967947</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02848972093133202</v>
+        <v>0.02903987872972378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -1001,19 +1001,19 @@
         <v>32988</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23027</v>
+        <v>23580</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45842</v>
+        <v>46025</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01611569464100191</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01124977779174242</v>
+        <v>0.01151962128424894</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02239563506942122</v>
+        <v>0.02248515381263317</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1004299</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>993688</v>
+        <v>993813</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1010492</v>
+        <v>1010418</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9865929447014075</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9761685311698401</v>
+        <v>0.9762911525640785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9926765357583269</v>
+        <v>0.9926041363687952</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>920</v>
@@ -1051,19 +1051,19 @@
         <v>1009633</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>999658</v>
+        <v>999092</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1017200</v>
+        <v>1018099</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9812046911389415</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.971510279068668</v>
+        <v>0.9709601212702763</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9885589236118647</v>
+        <v>0.9894317661103206</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1844</v>
@@ -1072,19 +1072,19 @@
         <v>2013933</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2001079</v>
+        <v>2000896</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2023894</v>
+        <v>2023341</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9838843053589981</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9776043649305782</v>
+        <v>0.9775148461873668</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9887502222082574</v>
+        <v>0.9884803787157511</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>9481</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4284</v>
+        <v>4306</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17323</v>
+        <v>16276</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01251426183113701</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005654696088104134</v>
+        <v>0.005683000381487071</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02286482283640719</v>
+        <v>0.02148352438224301</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1197,19 +1197,19 @@
         <v>8067</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3916</v>
+        <v>3943</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14413</v>
+        <v>15362</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01039531357726414</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005046411692103975</v>
+        <v>0.005081401256039609</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01857149691680683</v>
+        <v>0.01979531827415567</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1218,19 +1218,19 @@
         <v>17549</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10466</v>
+        <v>11177</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27578</v>
+        <v>26969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01144204787968186</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006824392035666831</v>
+        <v>0.007287910931928782</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01798139541116643</v>
+        <v>0.0175842845933066</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>748142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>740300</v>
+        <v>741347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753339</v>
+        <v>753317</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.987485738168863</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9771351771635935</v>
+        <v>0.9785164756177575</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.994345303911896</v>
+        <v>0.9943169996185129</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>696</v>
@@ -1268,19 +1268,19 @@
         <v>767998</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>761652</v>
+        <v>760703</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>772149</v>
+        <v>772122</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9896046864227359</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9814285030831931</v>
+        <v>0.9802046817258444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9949535883078959</v>
+        <v>0.9949185987439604</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1376</v>
@@ -1289,19 +1289,19 @@
         <v>1516140</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1506111</v>
+        <v>1506720</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1523223</v>
+        <v>1522512</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9885579521203182</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9820186045888338</v>
+        <v>0.9824157154066935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9931756079643332</v>
+        <v>0.9927120890680712</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>5476</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2072</v>
+        <v>2010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12413</v>
+        <v>11952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005777797356960298</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002186228770232558</v>
+        <v>0.002120464725993817</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01309765268153617</v>
+        <v>0.01261129712373027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1414,19 +1414,19 @@
         <v>14585</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8069</v>
+        <v>8722</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23711</v>
+        <v>24384</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01386503876208585</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007670792857669253</v>
+        <v>0.008291932728023066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02254144082650396</v>
+        <v>0.02318083807443927</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1435,19 +1435,19 @@
         <v>20060</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11914</v>
+        <v>11956</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30240</v>
+        <v>30818</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0100320510079111</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005958211891874118</v>
+        <v>0.005978900689801732</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01512280278333053</v>
+        <v>0.01541156277782771</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>942263</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>935326</v>
+        <v>935787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945667</v>
+        <v>945729</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9942222026430397</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9869023473184646</v>
+        <v>0.9873887028762693</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9978137712297674</v>
+        <v>0.9978795352740062</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>989</v>
@@ -1485,19 +1485,19 @@
         <v>1037316</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1028190</v>
+        <v>1027517</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1043832</v>
+        <v>1043179</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9861349612379141</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9774585591734961</v>
+        <v>0.9768191619255607</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9923292071423309</v>
+        <v>0.991708067271977</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1894</v>
@@ -1506,19 +1506,19 @@
         <v>1979580</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1969400</v>
+        <v>1968822</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1987726</v>
+        <v>1987684</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9899679489920888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9848771972166697</v>
+        <v>0.9845884372221722</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9940417881081259</v>
+        <v>0.9940210993101982</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>40966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30102</v>
+        <v>28981</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55982</v>
+        <v>55757</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0119547680229006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00878426297118399</v>
+        <v>0.008457175238879937</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01633662174423957</v>
+        <v>0.01627103143009564</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -1631,19 +1631,19 @@
         <v>53002</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40169</v>
+        <v>39613</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69261</v>
+        <v>69235</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01491332989288517</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01130261799665063</v>
+        <v>0.01114603551627663</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01948837145255604</v>
+        <v>0.01948089861811313</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -1652,19 +1652,19 @@
         <v>93968</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76253</v>
+        <v>77110</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115940</v>
+        <v>114893</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01346100598722568</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01092330959690509</v>
+        <v>0.01104602755535382</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01660850358912068</v>
+        <v>0.01645849259779075</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3385813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3370797</v>
+        <v>3371022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3396677</v>
+        <v>3397798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9880452319770994</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9836633782557604</v>
+        <v>0.9837289685699042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.991215737028816</v>
+        <v>0.99154282476112</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3244</v>
@@ -1702,19 +1702,19 @@
         <v>3500988</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3484729</v>
+        <v>3484755</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3513821</v>
+        <v>3514377</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9850866701071148</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.980511628547444</v>
+        <v>0.9805191013818869</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9886973820033493</v>
+        <v>0.9888539644837234</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6415</v>
@@ -1723,19 +1723,19 @@
         <v>6886801</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6864829</v>
+        <v>6865876</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6904516</v>
+        <v>6903659</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9865389940127743</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9833914964108793</v>
+        <v>0.983541507402209</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9890766904030949</v>
+        <v>0.9889539724446462</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>11319</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6528</v>
+        <v>5869</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19650</v>
+        <v>19177</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01677364207333782</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009673413123371905</v>
+        <v>0.008697444577460306</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02911918973030001</v>
+        <v>0.02841841807042146</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2088,19 +2088,19 @@
         <v>16229</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9637</v>
+        <v>9451</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25807</v>
+        <v>27048</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02412006609298656</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01432254097571155</v>
+        <v>0.01404644925555482</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03835474825466344</v>
+        <v>0.04019960717523387</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -2109,19 +2109,19 @@
         <v>27548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17860</v>
+        <v>18687</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39116</v>
+        <v>39745</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02044150904942665</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01325291894759358</v>
+        <v>0.01386647181777019</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02902572080080161</v>
+        <v>0.02949233441000398</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>663481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>655150</v>
+        <v>655623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668272</v>
+        <v>668931</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9832263579266621</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9708808102696997</v>
+        <v>0.9715815819295786</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.990326586876628</v>
+        <v>0.9913025554225401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>651</v>
@@ -2159,19 +2159,19 @@
         <v>656610</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>647032</v>
+        <v>645791</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>663202</v>
+        <v>663388</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9758799339070134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9616452517453365</v>
+        <v>0.9598003928247661</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9856774590242884</v>
+        <v>0.9859535507444451</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1291</v>
@@ -2180,19 +2180,19 @@
         <v>1320091</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1308523</v>
+        <v>1307894</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1329779</v>
+        <v>1328952</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9795584909505733</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9709742791991984</v>
+        <v>0.970507665589996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9867470810524065</v>
+        <v>0.9861335281822298</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>13589</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7474</v>
+        <v>8096</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22941</v>
+        <v>24401</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01329124440420158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007309689815286169</v>
+        <v>0.007918585221133673</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02243813185728421</v>
+        <v>0.02386581356381309</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -2305,19 +2305,19 @@
         <v>20101</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12270</v>
+        <v>12315</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31585</v>
+        <v>30619</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01927400691607002</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01176532121949356</v>
+        <v>0.01180802809778359</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03028501807827027</v>
+        <v>0.02935940087917475</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -2326,19 +2326,19 @@
         <v>33690</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23478</v>
+        <v>23798</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47971</v>
+        <v>48028</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01631229117905852</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01136777080182486</v>
+        <v>0.01152254698692074</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02322647083950583</v>
+        <v>0.02325443115355113</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>1008842</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>999490</v>
+        <v>998030</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1014957</v>
+        <v>1014335</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9867087555957984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9775618681427158</v>
+        <v>0.9761341864361871</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9926903101847137</v>
+        <v>0.9920814147788664</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>959</v>
@@ -2376,19 +2376,19 @@
         <v>1022812</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1011328</v>
+        <v>1012294</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1030643</v>
+        <v>1030598</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9807259930839299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9697149819217297</v>
+        <v>0.9706405991208252</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9882346787805064</v>
+        <v>0.9881919719022164</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1897</v>
@@ -2397,19 +2397,19 @@
         <v>2031654</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2017373</v>
+        <v>2017316</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2041866</v>
+        <v>2041546</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9836877088209415</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9767735291604941</v>
+        <v>0.9767455688464489</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9886322291981751</v>
+        <v>0.9884774530130793</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>9355</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5075</v>
+        <v>4617</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17303</v>
+        <v>17781</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01231689643012846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006681096774345521</v>
+        <v>0.006078626490102356</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02278072686852582</v>
+        <v>0.02340997385965745</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2522,19 +2522,19 @@
         <v>6953</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2380</v>
+        <v>3166</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14292</v>
+        <v>15384</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008856874415626943</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003031487296847483</v>
+        <v>0.004033326169028923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.018206247106121</v>
+        <v>0.01959667836964674</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -2543,19 +2543,19 @@
         <v>16308</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9243</v>
+        <v>9735</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25965</v>
+        <v>26138</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0105583701022551</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005984472758249546</v>
+        <v>0.006302475282476551</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01681040426544031</v>
+        <v>0.01692247814113881</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>750197</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>742249</v>
+        <v>741771</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754477</v>
+        <v>754935</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9876831035698715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9772192731314742</v>
+        <v>0.9765900261403425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9933189032256545</v>
+        <v>0.9939213735098974</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>730</v>
@@ -2593,19 +2593,19 @@
         <v>778058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>770719</v>
+        <v>769627</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>782631</v>
+        <v>781845</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.991143125584373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9817937528938806</v>
+        <v>0.9804033216303535</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9969685127031526</v>
+        <v>0.9959666738309711</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1417</v>
@@ -2614,19 +2614,19 @@
         <v>1528255</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1518598</v>
+        <v>1518425</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1535320</v>
+        <v>1534828</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9894416298977449</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9831895957345598</v>
+        <v>0.9830775218588611</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9940155272417505</v>
+        <v>0.9936975247175235</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>11208</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5936</v>
+        <v>5694</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19941</v>
+        <v>19673</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01195453626456826</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006331599148864121</v>
+        <v>0.006072648680972985</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02126835256766183</v>
+        <v>0.02098291391813852</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -2739,19 +2739,19 @@
         <v>13543</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7480</v>
+        <v>7484</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22330</v>
+        <v>23344</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01297523041841219</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007165835502568188</v>
+        <v>0.007170371396476537</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02139389294749857</v>
+        <v>0.02236503048160254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -2760,19 +2760,19 @@
         <v>24751</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16232</v>
+        <v>16169</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38110</v>
+        <v>35779</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01249224100154779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008192420705057522</v>
+        <v>0.008160840319129704</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01923454212314629</v>
+        <v>0.01805808202723111</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>926359</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>917626</v>
+        <v>917894</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931631</v>
+        <v>931873</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9880454637354318</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9787316474323382</v>
+        <v>0.9790170860818618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9936684008511359</v>
+        <v>0.9939273513190271</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>947</v>
@@ -2810,19 +2810,19 @@
         <v>1030236</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1021449</v>
+        <v>1020435</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1036299</v>
+        <v>1036295</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9870247695815878</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9786061070525014</v>
+        <v>0.9776349695183975</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9928341644974318</v>
+        <v>0.9928296286035234</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1868</v>
@@ -2831,19 +2831,19 @@
         <v>1956595</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1943236</v>
+        <v>1945567</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1965114</v>
+        <v>1965177</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9875077589984522</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9807654578768538</v>
+        <v>0.981941917972769</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9918075792949425</v>
+        <v>0.9918391596808703</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>45472</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33732</v>
+        <v>33377</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60813</v>
+        <v>59623</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01339630138834069</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009937575783645087</v>
+        <v>0.009833096679855323</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01791608973182475</v>
+        <v>0.01756527888694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -2956,19 +2956,19 @@
         <v>56826</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42442</v>
+        <v>42703</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74647</v>
+        <v>74681</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01603198674479395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01197402210086721</v>
+        <v>0.01204760113647586</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02105977720290897</v>
+        <v>0.02106918809075865</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -2977,19 +2977,19 @@
         <v>102298</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82074</v>
+        <v>83789</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>121979</v>
+        <v>126312</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01474266864430109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0118280687226555</v>
+        <v>0.01207521522021723</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01757903912709775</v>
+        <v>0.01820344553100368</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3348878</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3333537</v>
+        <v>3334727</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3360618</v>
+        <v>3360973</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9866036986116593</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9820839102681754</v>
+        <v>0.9824347211130602</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9900624242163549</v>
+        <v>0.9901669033201447</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3287</v>
@@ -3027,19 +3027,19 @@
         <v>3487716</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3469895</v>
+        <v>3469861</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3502100</v>
+        <v>3501839</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.983968013255206</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9789402227970909</v>
+        <v>0.9789308119092414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9880259778991328</v>
+        <v>0.9879523988635239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6473</v>
@@ -3048,19 +3048,19 @@
         <v>6836594</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6816913</v>
+        <v>6812580</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6856818</v>
+        <v>6855103</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9852573313556989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9824209608729022</v>
+        <v>0.9817965544689966</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9881719312773445</v>
+        <v>0.9879247847797831</v>
       </c>
     </row>
     <row r="18">
